--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzLocation</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzLocation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -443,7 +443,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://192.168.10.200:3447/fhir/StructureDefinition/SzLocationCodeExtension}
+    <t xml:space="preserve">Extension {http://172.209.216.154:3447/fhir/StructureDefinition/SzLocationCodeExtension}
 </t>
   </si>
   <si>
@@ -806,7 +806,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzOrganization)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzOrganization)
 </t>
   </si>
   <si>
@@ -1280,7 +1280,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$40</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,21 +413,21 @@
     <t>Location.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -437,31 +437,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Location.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://172.209.216.154:3447/fhir/StructureDefinition/SzLocationCodeExtension}
-</t>
-  </si>
-  <si>
-    <t>Extention: Eswatini Location Code</t>
-  </si>
-  <si>
-    <t>Extention for Eswatini Location Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Location.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -471,9 +447,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -741,9 +714,6 @@
   </si>
   <si>
     <t>Location.position.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1261,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1280,7 +1250,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2186,7 +2156,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2205,15 +2175,17 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -2250,14 +2222,16 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>133</v>
@@ -2275,7 +2249,7 @@
         <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2286,41 +2260,43 @@
         <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
       </c>
@@ -2368,7 +2344,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2377,13 +2353,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2391,14 +2367,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2411,25 +2387,23 @@
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2478,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2490,21 +2464,21 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2515,30 +2489,28 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -2562,13 +2534,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -2586,13 +2558,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -2629,19 +2601,19 @@
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2668,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="Y13" t="s" s="2">
         <v>159</v>
@@ -2710,15 +2682,15 @@
         <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2726,13 +2698,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>20</v>
@@ -2741,15 +2713,17 @@
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2774,13 +2748,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -2798,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2813,18 +2787,18 @@
         <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2832,33 +2806,35 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -2906,13 +2882,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2921,7 +2897,7 @@
         <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -2929,10 +2905,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2943,7 +2919,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2952,22 +2928,20 @@
         <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3016,13 +2990,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -3031,7 +3005,7 @@
         <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -3039,10 +3013,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3065,17 +3039,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3100,13 +3076,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3124,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3139,10 +3115,10 @@
         <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3158,13 +3134,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>20</v>
@@ -3173,20 +3149,16 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3210,13 +3182,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3240,7 +3212,7 @@
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -3249,10 +3221,10 @@
         <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -3268,19 +3240,19 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>195</v>
@@ -3316,13 +3288,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3355,18 +3327,18 @@
         <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3377,7 +3349,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3389,16 +3361,20 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -3446,13 +3422,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -3461,7 +3437,7 @@
         <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3469,10 +3445,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3492,22 +3468,20 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3532,13 +3506,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -3556,7 +3530,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3574,7 +3548,7 @@
         <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3602,20 +3576,20 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3640,13 +3614,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -3679,18 +3653,18 @@
         <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3713,18 +3687,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -3772,7 +3744,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3784,10 +3756,10 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -3795,21 +3767,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3821,15 +3793,17 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -3878,22 +3852,22 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -3901,14 +3875,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3921,24 +3895,26 @@
         <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -3986,7 +3962,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4001,7 +3977,7 @@
         <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4009,46 +3985,42 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4096,22 +4068,22 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4119,10 +4091,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4145,13 +4117,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4202,7 +4174,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
@@ -4217,7 +4189,7 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4225,10 +4197,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4236,7 +4208,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -4251,13 +4223,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4308,10 +4280,10 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>83</v>
@@ -4323,7 +4295,7 @@
         <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4331,10 +4303,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4354,19 +4326,23 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -4414,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4429,7 +4405,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -4437,10 +4413,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4460,22 +4436,20 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4524,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4539,7 +4513,7 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -4547,10 +4521,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4561,7 +4535,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4573,18 +4547,18 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -4632,13 +4606,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -4647,7 +4621,7 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -4655,10 +4629,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4669,7 +4643,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4681,17 +4655,15 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -4740,22 +4712,22 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -4763,21 +4735,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -4789,15 +4761,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -4846,22 +4820,22 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -4869,14 +4843,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4889,24 +4863,26 @@
         <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -4954,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -4969,7 +4945,7 @@
         <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -4977,14 +4953,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -4997,26 +4973,22 @@
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5040,13 +5012,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5064,7 +5036,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5076,10 +5048,10 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
@@ -5087,10 +5059,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5101,7 +5073,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5113,13 +5085,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5146,13 +5118,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -5170,13 +5142,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -5185,7 +5157,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5193,10 +5165,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5219,13 +5191,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5276,7 +5248,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5291,7 +5263,7 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -5299,10 +5271,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5325,13 +5297,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5382,7 +5354,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5397,7 +5369,7 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
@@ -5405,10 +5377,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5431,13 +5403,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5488,7 +5460,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5503,7 +5475,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -5511,10 +5483,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5525,7 +5497,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5537,16 +5509,18 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -5594,13 +5568,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -5609,122 +5583,14 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL41">
+  <autoFilter ref="A1:AL40">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5734,7 +5600,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI40">
+  <conditionalFormatting sqref="A2:AI39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLocation.xlsx
+++ b/StructureDefinition-SzLocation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
